--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.036766755822917</v>
+        <v>1.323690433403677</v>
       </c>
       <c r="D2">
-        <v>0.2999938620339178</v>
+        <v>0.1991968712117693</v>
       </c>
       <c r="E2">
         <v>0.6774844343342211</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.7044725562678358</v>
+        <v>0.6854058431597063</v>
       </c>
       <c r="D3">
-        <v>0.481236234252824</v>
+        <v>0.5002469437236934</v>
       </c>
       <c r="E3">
         <v>0.6774844343342211</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.1673311459362783</v>
+        <v>0.1416036270706615</v>
       </c>
       <c r="D4">
-        <v>0.8671296492101994</v>
+        <v>0.888681807034889</v>
       </c>
       <c r="E4">
         <v>0.6774844343342211</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.471983501613936</v>
+        <v>2.17376150313767</v>
       </c>
       <c r="D5">
-        <v>0.01353507588381175</v>
+        <v>0.04076223159792658</v>
       </c>
       <c r="E5">
         <v>0.6774844343342211</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2815882395502827</v>
+        <v>-0.2456741592954136</v>
       </c>
       <c r="D6">
-        <v>0.7782939590083779</v>
+        <v>0.8082118901637569</v>
       </c>
       <c r="E6">
         <v>0.6524772158116784</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.6450164010224935</v>
+        <v>-0.5332845749245547</v>
       </c>
       <c r="D7">
-        <v>0.5190046800001191</v>
+        <v>0.5991833369418558</v>
       </c>
       <c r="E7">
         <v>0.6524772158116784</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.197130106390175</v>
+        <v>1.12397941549441</v>
       </c>
       <c r="D8">
-        <v>0.2314248391651734</v>
+        <v>0.2731369861452784</v>
       </c>
       <c r="E8">
         <v>0.6524772158116784</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.4766429466260985</v>
+        <v>-0.4440314306162113</v>
       </c>
       <c r="D9">
-        <v>0.6336784203935428</v>
+        <v>0.661356702028967</v>
       </c>
       <c r="E9">
         <v>0.6598814279554576</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.952025811367557</v>
+        <v>1.687437973966695</v>
       </c>
       <c r="D10">
-        <v>0.05110116472536474</v>
+        <v>0.1056480089341774</v>
       </c>
       <c r="E10">
         <v>0.6598814279554576</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.81190384381206</v>
+        <v>1.761839132064882</v>
       </c>
       <c r="D11">
-        <v>0.07017964121281706</v>
+        <v>0.09198832634806098</v>
       </c>
       <c r="E11">
         <v>0.6726415875215315</v>
